--- a/etl_test/dev_agp.xlsx
+++ b/etl_test/dev_agp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurence/workspace/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jessie/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A899D6C-ADE1-FC4A-821B-D75AB4CACD1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483D6D54-61AE-6A48-B3B8-897DE979622D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2420" windowWidth="36120" windowHeight="17560" xr2:uid="{4CE95A5A-ADD2-ED42-96A2-6D54DCB6194D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" xr2:uid="{4CE95A5A-ADD2-ED42-96A2-6D54DCB6194D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>No.</t>
   </si>
@@ -150,6 +150,18 @@
   </si>
   <si>
     <t>NEON_CODE_0003-03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1003</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -527,7 +539,7 @@
   <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -624,11 +636,11 @@
         <v>201905</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1">
-        <v>1001</v>
-      </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
       <c r="G2" s="1" t="s">
         <v>26</v>
       </c>
@@ -667,11 +679,11 @@
         <v>201905</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1">
-        <v>1002</v>
-      </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
       <c r="G3" s="1" t="s">
         <v>27</v>
       </c>
@@ -710,11 +722,11 @@
         <v>201905</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1">
-        <v>1003</v>
-      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
       <c r="G4" s="1" t="s">
         <v>28</v>
       </c>

--- a/etl_test/dev_agp.xlsx
+++ b/etl_test/dev_agp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jessie/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jessie/Box/jessie.yen (Box_Personal)/Work/02.Working On - CB/02-5.Project/Pipeline/ETL Template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483D6D54-61AE-6A48-B3B8-897DE979622D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0C73DB-093C-DD4A-8265-638F0E14D5EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" xr2:uid="{4CE95A5A-ADD2-ED42-96A2-6D54DCB6194D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{4CE95A5A-ADD2-ED42-96A2-6D54DCB6194D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>No.</t>
   </si>
@@ -162,6 +162,22 @@
   </si>
   <si>
     <t>C1003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service Category</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -193,12 +209,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -215,11 +237,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -536,129 +561,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB8E685-3235-E346-8DA3-3C1E7FF9DAED}">
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AB4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="11" max="11" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:28">
+      <c r="A1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1">
+    <row r="2" spans="1:28">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1">
         <v>201905</v>
       </c>
-      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="1"/>
+      <c r="P2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -669,39 +700,42 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
-      <c r="AA2" s="1">
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1">
+    <row r="3" spans="1:28">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1">
         <v>201905</v>
       </c>
-      <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -712,39 +746,42 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
-      <c r="AA3" s="1">
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1">
+    <row r="4" spans="1:28">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1">
         <v>201905</v>
       </c>
-      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="1" t="s">
+      <c r="O4" s="1"/>
+      <c r="P4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -755,7 +792,8 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="1">
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1">
         <v>700</v>
       </c>
     </row>
